--- a/Jogos_do_Dia/2022-12-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -647,16 +647,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="V2" t="n">
         <v>2.64</v>
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="V3" t="n">
         <v>0.83</v>
@@ -805,28 +805,28 @@
         <v>3</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4">
@@ -855,10 +855,10 @@
         <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I4" t="n">
         <v>1.03</v>
@@ -876,7 +876,7 @@
         <v>2.2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="V6" t="n">
         <v>0.54</v>
@@ -1135,28 +1135,28 @@
         <v>2.57</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="7">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V7" t="n">
         <v>0.86</v>
@@ -1245,28 +1245,28 @@
         <v>2.55</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>3.37</v>
       </c>
       <c r="H8" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="I9" t="n">
         <v>1.04</v>
@@ -1423,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="N9" t="n">
         <v>2.1</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.13</v>
+        <v>2.3</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.07</v>
       </c>
       <c r="I10" t="n">
         <v>1.1</v>
@@ -1533,10 +1533,10 @@
         <v>2.55</v>
       </c>
       <c r="M10" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="N10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O10" t="n">
         <v>1.54</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I11" t="n">
         <v>1.1</v>
@@ -1643,10 +1643,10 @@
         <v>2.6</v>
       </c>
       <c r="M11" t="n">
-        <v>2.48</v>
+        <v>2.37</v>
       </c>
       <c r="N11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O11" t="n">
         <v>1.53</v>
@@ -1753,10 +1753,10 @@
         <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="N12" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -1863,10 +1863,10 @@
         <v>3.08</v>
       </c>
       <c r="M13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="N13" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
@@ -1973,10 +1973,10 @@
         <v>2.85</v>
       </c>
       <c r="M14" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O15" t="n">
         <v>1.5</v>
@@ -2193,10 +2193,10 @@
         <v>2.77</v>
       </c>
       <c r="M16" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="N16" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -2303,10 +2303,10 @@
         <v>2.8</v>
       </c>
       <c r="M17" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="N17" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="O17" t="n">
         <v>1.5</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="G18" t="n">
         <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="I18" t="n">
         <v>1.05</v>
@@ -2413,10 +2413,10 @@
         <v>2.7</v>
       </c>
       <c r="M18" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N18" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="O18" t="n">
         <v>1.5</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I19" t="n">
         <v>1.02</v>
@@ -2523,10 +2523,10 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="N19" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="O19" t="n">
         <v>1.29</v>
@@ -2612,19 +2612,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="K20" t="n">
         <v>1.49</v>
@@ -2633,10 +2633,10 @@
         <v>2.43</v>
       </c>
       <c r="M20" t="n">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N20" t="n">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
@@ -2651,13 +2651,13 @@
         <v>1.8</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V20" t="n">
         <v>1.44</v>
@@ -2743,10 +2743,10 @@
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="N21" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="O21" t="n">
         <v>1.44</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="I22" t="n">
         <v>1.1</v>
@@ -2853,10 +2853,10 @@
         <v>2.6</v>
       </c>
       <c r="M22" t="n">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="N22" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="O22" t="n">
         <v>1.53</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="G23" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I23" t="n">
         <v>1.08</v>
@@ -2963,10 +2963,10 @@
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="N23" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
